--- a/biology/Microbiologie/Milieu_VRBG/Milieu_VRBG.xlsx
+++ b/biology/Microbiologie/Milieu_VRBG/Milieu_VRBG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le milieu de culture VRBG (Violet Red Bile Glucose) est un milieu sélectif destiné à déterminer la présence et estimer la quantité d'Enterobacteriaceae présentes dans divers produits, notamment dans des produits alimentaires[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le milieu de culture VRBG (Violet Red Bile Glucose) est un milieu sélectif destiné à déterminer la présence et estimer la quantité d'Enterobacteriaceae présentes dans divers produits, notamment dans des produits alimentaires.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Composition[2]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(grammes/litre)
 Extrait de levure 3,0
@@ -551,7 +565,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sels biliaires ainsi que le cristal violet inhibent la croissance des bactéries à Gram positif.
 L'utilisation du glucose entraîne une acidification du milieu, faisant virer l'indicateur coloré (rouge neutre) pour donner des colonies roses à rouges avec ou sans précipité rouge.
